--- a/Assets/Data/Table/Convert/ItemRecipe_RecipeGroup.xlsx
+++ b/Assets/Data/Table/Convert/ItemRecipe_RecipeGroup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA3D277-1AAE-452B-8002-787B65449298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AD9DB3-2F9F-4009-BDDB-EB330751527D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25680" yWindow="450" windowWidth="16200" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="2964" windowWidth="27168" windowHeight="20184" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecipeGroup" sheetId="1" r:id="rId1"/>
@@ -64,45 +64,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HealItem_Piece</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxHpItem_Piece</t>
-  </si>
-  <si>
-    <t>MaxMpItem_Piece</t>
-  </si>
-  <si>
-    <t>MaxTpItem_Piece</t>
-  </si>
-  <si>
-    <t>MaxEquipSlot_Piece</t>
-  </si>
-  <si>
-    <t>MaxAtk_Piece</t>
-  </si>
-  <si>
-    <t>HealItem_AdditiveCount</t>
-  </si>
-  <si>
-    <t>MaxHpItem_AdditiveCount</t>
-  </si>
-  <si>
-    <t>MaxMpItem_AdditiveCount</t>
-  </si>
-  <si>
-    <t>MaxTpItem_AdditiveCount</t>
-  </si>
-  <si>
-    <t>MaxEquipSlot_AdditiveCount</t>
-  </si>
-  <si>
-    <t>MaxAtk_AdditiveCount</t>
-  </si>
-  <si>
     <t>Tb.Item
 Item</t>
+  </si>
+  <si>
+    <t>HealItem_LevelUpItemPiece</t>
+  </si>
+  <si>
+    <t>MaxHpItem_LevelUpItemPiece</t>
+  </si>
+  <si>
+    <t>MaxMpItem_LevelUpItemPiece</t>
+  </si>
+  <si>
+    <t>MaxTpItem_LevelUpItemPiece</t>
+  </si>
+  <si>
+    <t>MaxEquipSlot_LevelUpItemPiece</t>
+  </si>
+  <si>
+    <t>AtkDamage_LevelUpItemPiece</t>
+  </si>
+  <si>
+    <t>HealItem_LevelUpItem</t>
+  </si>
+  <si>
+    <t>MaxHpItem_LevelUpItem</t>
+  </si>
+  <si>
+    <t>MaxMpItem_LevelUpItem</t>
+  </si>
+  <si>
+    <t>MaxTpItem_LevelUpItem</t>
+  </si>
+  <si>
+    <t>MaxEquipSlot_LevelUpItem</t>
+  </si>
+  <si>
+    <t>AtkDamage_LevelUpItem</t>
   </si>
 </sst>
 </file>
@@ -209,32 +208,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -527,19 +524,19 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27" style="11" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="6" customWidth="1"/>
+    <col min="1" max="1" width="24.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="6" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="71.400000000000006" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -553,7 +550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -561,91 +558,91 @@
         <v>6</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>13</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>14</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>15</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>16</v>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>17</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>18</v>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="6">
         <v>3</v>
